--- a/week4/week4.xlsx
+++ b/week4/week4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
   <si>
     <t xml:space="preserve">TalebeNo</t>
   </si>
@@ -86,283 +86,292 @@
     <t xml:space="preserve">UniversityName</t>
   </si>
   <si>
+    <t xml:space="preserve">UniversityCityNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 byte + 4 byte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan State Oil and Industry University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan Technical University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan State University of Economics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tinyint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan State Pedagogical University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan University of Architecture and Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku Slavic University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max = 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan University of Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku Engineering University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzeyir Hajibayli Baku Music Academy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan State University of Culture and Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lankaran State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganja State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan Technological University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mingachevir State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan State Academy of Fine Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan National Conservatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakhchivan Teachers Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan State Academy of Physical Culture and Sport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan Medical University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan State Agrarian University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academy of Public Administration under the President of the Republic of Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan State Marine Academy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Aviation Academy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADA University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku Higher Oil School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan Tourism and Management University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku branch of M. V. Lomonosov Moscow State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku branch of I. M. Sechenov First Moscow Medical University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku Choreography Academy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute of Theology of Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Caspian University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khazar University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odlar Yurdu Universiteti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku Eurasian University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku Girls Academy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan Cooperation University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku Business University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan Academy of Labor and Social Relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku Islamic University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heydar Aliyev Azerbaijan Higher Military School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heydar Aliyev Academy of National Security Ministry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police Academy of Ministry of Internal Affairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan Internal Troops Higher School of Ministry of Internal Affairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Border Service Academy of the Republic of Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academy of Ministry of Emergency Situations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academy of State Customs Committee of the Republic of Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of Living</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC569143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.09.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD453450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.07.1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT342553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.12.2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRONG APPROACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVISIBLE COLUMN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct Approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID, No, Number, Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMARY KEY?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot be primary key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CityNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baku </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumgait </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xırdalan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mingachevir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakhchivan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lankaran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirvan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaki </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yevlakh </t>
+  </si>
+  <si>
     <t xml:space="preserve">UniversityCity</t>
   </si>
   <si>
-    <t xml:space="preserve">Baku State University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 byte + 4 byte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan State Oil and Industry University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 byte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan Technical University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan State University of Economics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tinyint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan State Pedagogical University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 byte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan University of Architecture and Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baku Slavic University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max = 255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan University of Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baku Engineering University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzeyir Hajibayli Baku Music Academy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan State University of Culture and Arts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lankaran State University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ganja State University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan Technological University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mingachevir State University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan State Academy of Fine Arts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan National Conservatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakhchivan Teachers Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan State Academy of Physical Culture and Sport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan Medical University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan State Agrarian University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academy of Public Administration under the President of the Republic of Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan State Marine Academy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Aviation Academy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADA University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baku Higher Oil School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan Tourism and Management University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baku branch of M. V. Lomonosov Moscow State University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baku branch of I. M. Sechenov First Moscow Medical University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baku Choreography Academy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institute of Theology of Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Caspian University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khazar University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odlar Yurdu Universiteti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baku Eurasian University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baku Girls Academy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan Cooperation University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baku Business University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan Academy of Labor and Social Relations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baku Islamic University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heydar Aliyev Azerbaijan Higher Military School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heydar Aliyev Academy of National Security Ministry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Police Academy of Ministry of Internal Affairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan Internal Troops Higher School of Ministry of Internal Affairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Border Service Academy of the Republic of Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academy of Ministry of Emergency Situations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academy of State Customs Committee of the Republic of Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City of Living</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC569143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09.09.2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD453450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.07.1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT342553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.12.2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRONG APPROACH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVISIBLE COLUMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correct Approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID, No, Number, Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMARY KEY?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannot be primary key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baku </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumgait </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ganja </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xırdalan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mingachevir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakhchivan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lankaran </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shirvan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaki </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yevlakh </t>
-  </si>
-  <si>
     <t xml:space="preserve">1 million talebe</t>
   </si>
   <si>
     <t xml:space="preserve">CityId</t>
   </si>
   <si>
+    <t xml:space="preserve">Talebe</t>
+  </si>
+  <si>
     <t xml:space="preserve">CityofLivingId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERD</t>
   </si>
 </sst>
 </file>
@@ -607,8 +616,8 @@
   </sheetPr>
   <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -763,8 +772,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A3:C7 B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1352,8 +1361,8 @@
   </sheetPr>
   <dimension ref="A5:F11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1467,8 +1476,8 @@
   </sheetPr>
   <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3:C7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1639,8 +1648,8 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="A3:C7 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1789,8 +1798,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1838,7 +1847,7 @@
         <v>80</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,7 +1891,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1903,8 +1912,8 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1931,7 +1940,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>80</v>
@@ -2033,10 +2042,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2045,41 +2054,29 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="C3" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>4</v>
@@ -2089,69 +2086,96 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E18" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="8" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="9" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E20" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="10" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E21" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>84</v>
       </c>
     </row>
